--- a/natmiOut/OldD2/LR-pairs_lrc2p/Selplg-Sell.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Selplg-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.9893826083434</v>
+        <v>3.7825415</v>
       </c>
       <c r="H2">
-        <v>2.9893826083434</v>
+        <v>7.565083</v>
       </c>
       <c r="I2">
-        <v>0.01705625391955307</v>
+        <v>0.02134139439091907</v>
       </c>
       <c r="J2">
-        <v>0.01705625391955307</v>
+        <v>0.0143760362842082</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>3.23524656555596</v>
+        <v>0.0515145</v>
       </c>
       <c r="N2">
-        <v>3.23524656555596</v>
+        <v>0.103029</v>
       </c>
       <c r="O2">
-        <v>0.2029638330018236</v>
+        <v>0.001471145681204534</v>
       </c>
       <c r="P2">
-        <v>0.2029638330018236</v>
+        <v>0.0009812449722373931</v>
       </c>
       <c r="Q2">
-        <v>9.671389816775703</v>
+        <v>0.19485573410175</v>
       </c>
       <c r="R2">
-        <v>9.671389816775703</v>
+        <v>0.7794229364069999</v>
       </c>
       <c r="S2">
-        <v>0.003461802672164869</v>
+        <v>3.139630018908328E-05</v>
       </c>
       <c r="T2">
-        <v>0.003461802672164869</v>
+        <v>1.410641332458163E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.9893826083434</v>
+        <v>3.7825415</v>
       </c>
       <c r="H3">
-        <v>2.9893826083434</v>
+        <v>7.565083</v>
       </c>
       <c r="I3">
-        <v>0.01705625391955307</v>
+        <v>0.02134139439091907</v>
       </c>
       <c r="J3">
-        <v>0.01705625391955307</v>
+        <v>0.0143760362842082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.7047685480081</v>
+        <v>16.93389433333333</v>
       </c>
       <c r="N3">
-        <v>12.7047685480081</v>
+        <v>50.801683</v>
       </c>
       <c r="O3">
-        <v>0.7970361669981765</v>
+        <v>0.4835963760583383</v>
       </c>
       <c r="P3">
-        <v>0.7970361669981765</v>
+        <v>0.4838336393146381</v>
       </c>
       <c r="Q3">
-        <v>37.97941414044364</v>
+        <v>64.05315807244816</v>
       </c>
       <c r="R3">
-        <v>37.97941414044364</v>
+        <v>384.3189484346889</v>
       </c>
       <c r="S3">
-        <v>0.01359445124738821</v>
+        <v>0.01032062098748021</v>
       </c>
       <c r="T3">
-        <v>0.01359445124738821</v>
+        <v>0.006955609954307738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.2334726315084</v>
+        <v>3.7825415</v>
       </c>
       <c r="H4">
-        <v>1.2334726315084</v>
+        <v>7.565083</v>
       </c>
       <c r="I4">
-        <v>0.007037714860288582</v>
+        <v>0.02134139439091907</v>
       </c>
       <c r="J4">
-        <v>0.007037714860288582</v>
+        <v>0.0143760362842082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.23524656555596</v>
+        <v>17.929651</v>
       </c>
       <c r="N4">
-        <v>3.23524656555596</v>
+        <v>53.788953</v>
       </c>
       <c r="O4">
-        <v>0.2029638330018236</v>
+        <v>0.512033090375614</v>
       </c>
       <c r="P4">
-        <v>0.2029638330018236</v>
+        <v>0.512284305323389</v>
       </c>
       <c r="Q4">
-        <v>3.990588094794823</v>
+        <v>67.8196489880165</v>
       </c>
       <c r="R4">
-        <v>3.990588094794823</v>
+        <v>406.917893928099</v>
       </c>
       <c r="S4">
-        <v>0.001428401583618064</v>
+        <v>0.01092750012290709</v>
       </c>
       <c r="T4">
-        <v>0.001428401583618064</v>
+        <v>0.007364617761159429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2334726315084</v>
+        <v>3.7825415</v>
       </c>
       <c r="H5">
-        <v>1.2334726315084</v>
+        <v>7.565083</v>
       </c>
       <c r="I5">
-        <v>0.007037714860288582</v>
+        <v>0.02134139439091907</v>
       </c>
       <c r="J5">
-        <v>0.007037714860288582</v>
+        <v>0.0143760362842082</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>12.7047685480081</v>
+        <v>0.1015266666666667</v>
       </c>
       <c r="N5">
-        <v>12.7047685480081</v>
+        <v>0.30458</v>
       </c>
       <c r="O5">
-        <v>0.7970361669981765</v>
+        <v>0.002899387884843278</v>
       </c>
       <c r="P5">
-        <v>0.7970361669981765</v>
+        <v>0.002900810389735562</v>
       </c>
       <c r="Q5">
-        <v>15.6709842936167</v>
+        <v>0.3840288300233333</v>
       </c>
       <c r="R5">
-        <v>15.6709842936167</v>
+        <v>2.30417298014</v>
       </c>
       <c r="S5">
-        <v>0.005609313276670518</v>
+        <v>6.187698034269305E-05</v>
       </c>
       <c r="T5">
-        <v>0.005609313276670518</v>
+        <v>4.170215541644656E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,184 +782,184 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>74.7867388588928</v>
+        <v>1.571017333333333</v>
       </c>
       <c r="H6">
-        <v>74.7867388588928</v>
+        <v>4.713052</v>
       </c>
       <c r="I6">
-        <v>0.4267040305354089</v>
+        <v>0.008863802421106721</v>
       </c>
       <c r="J6">
-        <v>0.4267040305354089</v>
+        <v>0.008956280659625284</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>3.23524656555596</v>
+        <v>0.0515145</v>
       </c>
       <c r="N6">
-        <v>3.23524656555596</v>
+        <v>0.103029</v>
       </c>
       <c r="O6">
-        <v>0.2029638330018236</v>
+        <v>0.001471145681204534</v>
       </c>
       <c r="P6">
-        <v>0.2029638330018236</v>
+        <v>0.0009812449722373931</v>
       </c>
       <c r="Q6">
-        <v>241.9535400423634</v>
+        <v>0.080930172418</v>
       </c>
       <c r="R6">
-        <v>241.9535400423634</v>
+        <v>0.485581034508</v>
       </c>
       <c r="S6">
-        <v>0.08660548559479377</v>
+        <v>1.303994465086145E-05</v>
       </c>
       <c r="T6">
-        <v>0.08660548559479377</v>
+        <v>8.788305367204313E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>74.7867388588928</v>
+        <v>1.571017333333333</v>
       </c>
       <c r="H7">
-        <v>74.7867388588928</v>
+        <v>4.713052</v>
       </c>
       <c r="I7">
-        <v>0.4267040305354089</v>
+        <v>0.008863802421106721</v>
       </c>
       <c r="J7">
-        <v>0.4267040305354089</v>
+        <v>0.008956280659625284</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.7047685480081</v>
+        <v>16.93389433333333</v>
       </c>
       <c r="N7">
-        <v>12.7047685480081</v>
+        <v>50.801683</v>
       </c>
       <c r="O7">
-        <v>0.7970361669981765</v>
+        <v>0.4835963760583383</v>
       </c>
       <c r="P7">
-        <v>0.7970361669981765</v>
+        <v>0.4838336393146381</v>
       </c>
       <c r="Q7">
-        <v>950.1482076625565</v>
+        <v>26.60344151850178</v>
       </c>
       <c r="R7">
-        <v>950.1482076625565</v>
+        <v>239.430973666516</v>
       </c>
       <c r="S7">
-        <v>0.3400985449406151</v>
+        <v>0.004286502728944336</v>
       </c>
       <c r="T7">
-        <v>0.3400985449406151</v>
+        <v>0.004333349866269809</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.123317933218</v>
+        <v>1.571017333333333</v>
       </c>
       <c r="H8">
-        <v>92.123317933218</v>
+        <v>4.713052</v>
       </c>
       <c r="I8">
-        <v>0.5256198046363243</v>
+        <v>0.008863802421106721</v>
       </c>
       <c r="J8">
-        <v>0.5256198046363243</v>
+        <v>0.008956280659625284</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.23524656555596</v>
+        <v>17.929651</v>
       </c>
       <c r="N8">
-        <v>3.23524656555596</v>
+        <v>53.788953</v>
       </c>
       <c r="O8">
-        <v>0.2029638330018236</v>
+        <v>0.512033090375614</v>
       </c>
       <c r="P8">
-        <v>0.2029638330018236</v>
+        <v>0.512284305323389</v>
       </c>
       <c r="Q8">
-        <v>298.0416479510633</v>
+        <v>28.16779250161733</v>
       </c>
       <c r="R8">
-        <v>298.0416479510633</v>
+        <v>253.510132514556</v>
       </c>
       <c r="S8">
-        <v>0.1066818102506581</v>
+        <v>0.004538560146158123</v>
       </c>
       <c r="T8">
-        <v>0.1066818102506581</v>
+        <v>0.004588162015997443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.123317933218</v>
+        <v>1.571017333333333</v>
       </c>
       <c r="H9">
-        <v>92.123317933218</v>
+        <v>4.713052</v>
       </c>
       <c r="I9">
-        <v>0.5256198046363243</v>
+        <v>0.008863802421106721</v>
       </c>
       <c r="J9">
-        <v>0.5256198046363243</v>
+        <v>0.008956280659625284</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>12.7047685480081</v>
+        <v>0.1015266666666667</v>
       </c>
       <c r="N9">
-        <v>12.7047685480081</v>
+        <v>0.30458</v>
       </c>
       <c r="O9">
-        <v>0.7970361669981765</v>
+        <v>0.002899387884843278</v>
       </c>
       <c r="P9">
-        <v>0.7970361669981765</v>
+        <v>0.002900810389735562</v>
       </c>
       <c r="Q9">
-        <v>1170.405432216099</v>
+        <v>0.1595001531288889</v>
       </c>
       <c r="R9">
-        <v>1170.405432216099</v>
+        <v>1.43550137816</v>
       </c>
       <c r="S9">
-        <v>0.4189379943856663</v>
+        <v>2.569960135340134E-05</v>
       </c>
       <c r="T9">
-        <v>0.4189379943856663</v>
+        <v>2.59804719908287E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.45723501082356</v>
+        <v>75.41654966666667</v>
       </c>
       <c r="H10">
-        <v>2.45723501082356</v>
+        <v>226.249649</v>
       </c>
       <c r="I10">
-        <v>0.0140200268000649</v>
+        <v>0.4255060598908617</v>
       </c>
       <c r="J10">
-        <v>0.0140200268000649</v>
+        <v>0.4299454696416905</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>3.23524656555596</v>
+        <v>0.0515145</v>
       </c>
       <c r="N10">
-        <v>3.23524656555596</v>
+        <v>0.103029</v>
       </c>
       <c r="O10">
-        <v>0.2029638330018236</v>
+        <v>0.001471145681204534</v>
       </c>
       <c r="P10">
-        <v>0.2029638330018236</v>
+        <v>0.0009812449722373931</v>
       </c>
       <c r="Q10">
-        <v>7.949761129530785</v>
+        <v>3.8850458478035</v>
       </c>
       <c r="R10">
-        <v>7.949761129530785</v>
+        <v>23.310275086821</v>
       </c>
       <c r="S10">
-        <v>0.002845558378129463</v>
+        <v>0.0006259814023347992</v>
       </c>
       <c r="T10">
-        <v>0.002845558378129463</v>
+        <v>0.0004218818304221535</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.45723501082356</v>
+        <v>75.41654966666667</v>
       </c>
       <c r="H11">
-        <v>2.45723501082356</v>
+        <v>226.249649</v>
       </c>
       <c r="I11">
-        <v>0.0140200268000649</v>
+        <v>0.4255060598908617</v>
       </c>
       <c r="J11">
-        <v>0.0140200268000649</v>
+        <v>0.4299454696416905</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.7047685480081</v>
+        <v>16.93389433333333</v>
       </c>
       <c r="N11">
-        <v>12.7047685480081</v>
+        <v>50.801683</v>
       </c>
       <c r="O11">
-        <v>0.7970361669981765</v>
+        <v>0.4835963760583383</v>
       </c>
       <c r="P11">
-        <v>0.7970361669981765</v>
+        <v>0.4838336393146381</v>
       </c>
       <c r="Q11">
-        <v>31.21860208057551</v>
+        <v>1277.095883039918</v>
       </c>
       <c r="R11">
-        <v>31.21860208057551</v>
+        <v>11493.86294735927</v>
       </c>
       <c r="S11">
-        <v>0.01117446842193544</v>
+        <v>0.205773188554083</v>
       </c>
       <c r="T11">
-        <v>0.01117446842193544</v>
+        <v>0.2080220812835804</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,861 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.6759238332114</v>
+        <v>75.41654966666667</v>
       </c>
       <c r="H12">
-        <v>1.6759238332114</v>
+        <v>226.249649</v>
       </c>
       <c r="I12">
-        <v>0.009562169248360295</v>
+        <v>0.4255060598908617</v>
       </c>
       <c r="J12">
-        <v>0.009562169248360295</v>
+        <v>0.4299454696416905</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.23524656555596</v>
+        <v>17.929651</v>
       </c>
       <c r="N12">
-        <v>3.23524656555596</v>
+        <v>53.788953</v>
       </c>
       <c r="O12">
-        <v>0.2029638330018236</v>
+        <v>0.512033090375614</v>
       </c>
       <c r="P12">
-        <v>0.2029638330018236</v>
+        <v>0.512284305323389</v>
       </c>
       <c r="Q12">
-        <v>5.422026825530561</v>
+        <v>1352.1924151475</v>
       </c>
       <c r="R12">
-        <v>5.422026825530561</v>
+        <v>12169.7317363275</v>
       </c>
       <c r="S12">
-        <v>0.001940774522459372</v>
+        <v>0.217873182819469</v>
       </c>
       <c r="T12">
-        <v>0.001940774522459372</v>
+        <v>0.2202543162423316</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>75.41654966666667</v>
+      </c>
+      <c r="H13">
+        <v>226.249649</v>
+      </c>
+      <c r="I13">
+        <v>0.4255060598908617</v>
+      </c>
+      <c r="J13">
+        <v>0.4299454696416905</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1015266666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.30458</v>
+      </c>
+      <c r="O13">
+        <v>0.002899387884843278</v>
+      </c>
+      <c r="P13">
+        <v>0.002900810389735562</v>
+      </c>
+      <c r="Q13">
+        <v>7.656790899157778</v>
+      </c>
+      <c r="R13">
+        <v>68.91111809242001</v>
+      </c>
+      <c r="S13">
+        <v>0.001233707114974963</v>
+      </c>
+      <c r="T13">
+        <v>0.001247190285356352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>92.20254033333333</v>
+      </c>
+      <c r="H14">
+        <v>276.607621</v>
+      </c>
+      <c r="I14">
+        <v>0.5202139294699846</v>
+      </c>
+      <c r="J14">
+        <v>0.5256414498009485</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.0515145</v>
+      </c>
+      <c r="N14">
+        <v>0.103029</v>
+      </c>
+      <c r="O14">
+        <v>0.001471145681204534</v>
+      </c>
+      <c r="P14">
+        <v>0.0009812449722373931</v>
+      </c>
+      <c r="Q14">
+        <v>4.7497677640015</v>
+      </c>
+      <c r="R14">
+        <v>28.498606584009</v>
+      </c>
+      <c r="S14">
+        <v>0.0007653104756422081</v>
+      </c>
+      <c r="T14">
+        <v>0.0005157830298167548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>92.20254033333333</v>
+      </c>
+      <c r="H15">
+        <v>276.607621</v>
+      </c>
+      <c r="I15">
+        <v>0.5202139294699846</v>
+      </c>
+      <c r="J15">
+        <v>0.5256414498009485</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.93389433333333</v>
+      </c>
+      <c r="N15">
+        <v>50.801683</v>
+      </c>
+      <c r="O15">
+        <v>0.4835963760583383</v>
+      </c>
+      <c r="P15">
+        <v>0.4838336393146381</v>
+      </c>
+      <c r="Q15">
+        <v>1561.348075269571</v>
+      </c>
+      <c r="R15">
+        <v>14052.13267742614</v>
+      </c>
+      <c r="S15">
+        <v>0.2515735710667525</v>
+      </c>
+      <c r="T15">
+        <v>0.2543230156318156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>92.20254033333333</v>
+      </c>
+      <c r="H16">
+        <v>276.607621</v>
+      </c>
+      <c r="I16">
+        <v>0.5202139294699846</v>
+      </c>
+      <c r="J16">
+        <v>0.5256414498009485</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.929651</v>
+      </c>
+      <c r="N16">
+        <v>53.788953</v>
+      </c>
+      <c r="O16">
+        <v>0.512033090375614</v>
+      </c>
+      <c r="P16">
+        <v>0.512284305323389</v>
+      </c>
+      <c r="Q16">
+        <v>1653.15936949009</v>
+      </c>
+      <c r="R16">
+        <v>14878.43432541081</v>
+      </c>
+      <c r="S16">
+        <v>0.2663667459629579</v>
+      </c>
+      <c r="T16">
+        <v>0.269277864960458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>92.20254033333333</v>
+      </c>
+      <c r="H17">
+        <v>276.607621</v>
+      </c>
+      <c r="I17">
+        <v>0.5202139294699846</v>
+      </c>
+      <c r="J17">
+        <v>0.5256414498009485</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1015266666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.30458</v>
+      </c>
+      <c r="O17">
+        <v>0.002899387884843278</v>
+      </c>
+      <c r="P17">
+        <v>0.002900810389735562</v>
+      </c>
+      <c r="Q17">
+        <v>9.361016578242221</v>
+      </c>
+      <c r="R17">
+        <v>84.24914920418</v>
+      </c>
+      <c r="S17">
+        <v>0.001508301964631989</v>
+      </c>
+      <c r="T17">
+        <v>0.001524786178858255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.559279333333333</v>
+      </c>
+      <c r="H18">
+        <v>7.677838</v>
+      </c>
+      <c r="I18">
+        <v>0.01443965376432621</v>
+      </c>
+      <c r="J18">
+        <v>0.01459030623620025</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.0515145</v>
+      </c>
+      <c r="N18">
+        <v>0.103029</v>
+      </c>
+      <c r="O18">
+        <v>0.001471145681204534</v>
+      </c>
+      <c r="P18">
+        <v>0.0009812449722373931</v>
+      </c>
+      <c r="Q18">
+        <v>0.131839995217</v>
+      </c>
+      <c r="R18">
+        <v>0.791039971302</v>
+      </c>
+      <c r="S18">
+        <v>2.124283427347731E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.431666463767538E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.559279333333333</v>
+      </c>
+      <c r="H19">
+        <v>7.677838</v>
+      </c>
+      <c r="I19">
+        <v>0.01443965376432621</v>
+      </c>
+      <c r="J19">
+        <v>0.01459030623620025</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.93389433333333</v>
+      </c>
+      <c r="N19">
+        <v>50.801683</v>
+      </c>
+      <c r="O19">
+        <v>0.4835963760583383</v>
+      </c>
+      <c r="P19">
+        <v>0.4838336393146381</v>
+      </c>
+      <c r="Q19">
+        <v>43.33856580015044</v>
+      </c>
+      <c r="R19">
+        <v>390.047092201354</v>
+      </c>
+      <c r="S19">
+        <v>0.0069829642319653</v>
+      </c>
+      <c r="T19">
+        <v>0.007059280964975827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.559279333333333</v>
+      </c>
+      <c r="H20">
+        <v>7.677838</v>
+      </c>
+      <c r="I20">
+        <v>0.01443965376432621</v>
+      </c>
+      <c r="J20">
+        <v>0.01459030623620025</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.929651</v>
+      </c>
+      <c r="N20">
+        <v>53.788953</v>
+      </c>
+      <c r="O20">
+        <v>0.512033090375614</v>
+      </c>
+      <c r="P20">
+        <v>0.512284305323389</v>
+      </c>
+      <c r="Q20">
+        <v>45.88698525817934</v>
+      </c>
+      <c r="R20">
+        <v>412.982867323614</v>
+      </c>
+      <c r="S20">
+        <v>0.007393580540901818</v>
+      </c>
+      <c r="T20">
+        <v>0.007474384894667356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.559279333333333</v>
+      </c>
+      <c r="H21">
+        <v>7.677838</v>
+      </c>
+      <c r="I21">
+        <v>0.01443965376432621</v>
+      </c>
+      <c r="J21">
+        <v>0.01459030623620025</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1015266666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.30458</v>
+      </c>
+      <c r="O21">
+        <v>0.002899387884843278</v>
+      </c>
+      <c r="P21">
+        <v>0.002900810389735562</v>
+      </c>
+      <c r="Q21">
+        <v>0.2598350997822222</v>
+      </c>
+      <c r="R21">
+        <v>2.33851589804</v>
+      </c>
+      <c r="S21">
+        <v>4.186615718561905E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.232371191939325E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.7077325</v>
+      </c>
+      <c r="H22">
+        <v>3.415465</v>
+      </c>
+      <c r="I22">
+        <v>0.009635160062801747</v>
+      </c>
+      <c r="J22">
+        <v>0.006490457377327275</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.0515145</v>
+      </c>
+      <c r="N22">
+        <v>0.103029</v>
+      </c>
+      <c r="O22">
+        <v>0.001471145681204534</v>
+      </c>
+      <c r="P22">
+        <v>0.0009812449722373931</v>
+      </c>
+      <c r="Q22">
+        <v>0.08797298587125001</v>
+      </c>
+      <c r="R22">
+        <v>0.351891943485</v>
+      </c>
+      <c r="S22">
+        <v>1.41747241141052E-05</v>
+      </c>
+      <c r="T22">
+        <v>6.368728669023485E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.7077325</v>
+      </c>
+      <c r="H23">
+        <v>3.415465</v>
+      </c>
+      <c r="I23">
+        <v>0.009635160062801747</v>
+      </c>
+      <c r="J23">
+        <v>0.006490457377327275</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>16.93389433333333</v>
+      </c>
+      <c r="N23">
+        <v>50.801683</v>
+      </c>
+      <c r="O23">
+        <v>0.4835963760583383</v>
+      </c>
+      <c r="P23">
+        <v>0.4838336393146381</v>
+      </c>
+      <c r="Q23">
+        <v>28.91856170459916</v>
+      </c>
+      <c r="R23">
+        <v>173.511370227595</v>
+      </c>
+      <c r="S23">
+        <v>0.004659528489112956</v>
+      </c>
+      <c r="T23">
+        <v>0.003140301613688797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.6759238332114</v>
-      </c>
-      <c r="H13">
-        <v>1.6759238332114</v>
-      </c>
-      <c r="I13">
-        <v>0.009562169248360295</v>
-      </c>
-      <c r="J13">
-        <v>0.009562169248360295</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.7047685480081</v>
-      </c>
-      <c r="N13">
-        <v>12.7047685480081</v>
-      </c>
-      <c r="O13">
-        <v>0.7970361669981765</v>
-      </c>
-      <c r="P13">
-        <v>0.7970361669981765</v>
-      </c>
-      <c r="Q13">
-        <v>21.29222440504137</v>
-      </c>
-      <c r="R13">
-        <v>21.29222440504137</v>
-      </c>
-      <c r="S13">
-        <v>0.007621394725900924</v>
-      </c>
-      <c r="T13">
-        <v>0.007621394725900924</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.7077325</v>
+      </c>
+      <c r="H24">
+        <v>3.415465</v>
+      </c>
+      <c r="I24">
+        <v>0.009635160062801747</v>
+      </c>
+      <c r="J24">
+        <v>0.006490457377327275</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>17.929651</v>
+      </c>
+      <c r="N24">
+        <v>53.788953</v>
+      </c>
+      <c r="O24">
+        <v>0.512033090375614</v>
+      </c>
+      <c r="P24">
+        <v>0.512284305323389</v>
+      </c>
+      <c r="Q24">
+        <v>30.6190477263575</v>
+      </c>
+      <c r="R24">
+        <v>183.714286358145</v>
+      </c>
+      <c r="S24">
+        <v>0.004933520783220073</v>
+      </c>
+      <c r="T24">
+        <v>0.003324959448775168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.7077325</v>
+      </c>
+      <c r="H25">
+        <v>3.415465</v>
+      </c>
+      <c r="I25">
+        <v>0.009635160062801747</v>
+      </c>
+      <c r="J25">
+        <v>0.006490457377327275</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.1015266666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.30458</v>
+      </c>
+      <c r="O25">
+        <v>0.002899387884843278</v>
+      </c>
+      <c r="P25">
+        <v>0.002900810389735562</v>
+      </c>
+      <c r="Q25">
+        <v>0.1733803882833334</v>
+      </c>
+      <c r="R25">
+        <v>1.0402823297</v>
+      </c>
+      <c r="S25">
+        <v>2.793606635461318E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.882758619428679E-05</v>
       </c>
     </row>
   </sheetData>
